--- a/BackTest/2020-01-16 BackTest TRUE.xlsx
+++ b/BackTest/2020-01-16 BackTest TRUE.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N128"/>
+  <dimension ref="A1:M128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,19 @@
         <v>14906.60922650056</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+        <v>284</v>
+      </c>
+      <c r="J4" t="n">
+        <v>284</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +554,23 @@
         <v>14906.60922650056</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>284</v>
+      </c>
+      <c r="J5" t="n">
+        <v>284</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +595,23 @@
         <v>14908.71892650056</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>284</v>
+      </c>
+      <c r="J6" t="n">
+        <v>284</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +636,19 @@
         <v>14908.71892650056</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
+        <v>285.9</v>
+      </c>
+      <c r="J7" t="n">
+        <v>285.9</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +673,23 @@
         <v>15660.93002650056</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>285.9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +714,23 @@
         <v>20817.72082650056</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>287</v>
+      </c>
+      <c r="J9" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +755,23 @@
         <v>20807.73082650056</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>294</v>
+      </c>
+      <c r="J10" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +798,19 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +837,19 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +874,23 @@
         <v>20807.73082650056</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>291</v>
+      </c>
+      <c r="J13" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +915,23 @@
         <v>20810.81172650056</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>291</v>
+      </c>
+      <c r="J14" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +956,23 @@
         <v>20370.86392650056</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>294</v>
+      </c>
+      <c r="J15" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +997,23 @@
         <v>20648.93292650056</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>278</v>
+      </c>
+      <c r="J16" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +1038,23 @@
         <v>20652.07172650056</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>279</v>
+      </c>
+      <c r="J17" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +1079,23 @@
         <v>-43523.21637349944</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>288.9</v>
+      </c>
+      <c r="J18" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1120,23 @@
         <v>-41936.13287349944</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>281.9</v>
+      </c>
+      <c r="J19" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1161,23 @@
         <v>-40551.34907349944</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>283</v>
+      </c>
+      <c r="J20" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1204,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1241,23 @@
         <v>-102778.1266734994</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>275.6</v>
+      </c>
+      <c r="J22" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1282,23 @@
         <v>-103178.0956734994</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>284.8</v>
+      </c>
+      <c r="J23" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1323,23 @@
         <v>-102130.7320734994</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>284</v>
+      </c>
+      <c r="J24" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,22 +1364,23 @@
         <v>-102431.5860734994</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>288.3</v>
       </c>
       <c r="J25" t="n">
-        <v>288.3</v>
-      </c>
-      <c r="K25" t="n">
-        <v>288.3</v>
-      </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+        <v>285.9</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1324,26 +1405,23 @@
         <v>-102431.5860734994</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>287.2</v>
       </c>
       <c r="J26" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="K26" t="n">
-        <v>288.3</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+        <v>285.9</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1368,26 +1446,23 @@
         <v>-102411.5860734994</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>287.2</v>
       </c>
       <c r="J27" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="K27" t="n">
-        <v>288.3</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>285.9</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1412,22 +1487,23 @@
         <v>-102411.5860734994</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>288.2</v>
       </c>
       <c r="J28" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="K28" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>285.9</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1452,26 +1528,21 @@
         <v>-102300.5467734994</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="K29" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>285.9</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1496,26 +1567,21 @@
         <v>-99286.37307349945</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>292.9</v>
-      </c>
-      <c r="K30" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>285.9</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1540,26 +1606,21 @@
         <v>-50101.16917349945</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>293.9</v>
-      </c>
-      <c r="K31" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>285.9</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1586,22 +1647,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1628,22 +1686,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1670,22 +1725,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1712,22 +1764,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1754,22 +1803,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1796,22 +1842,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1838,22 +1881,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1880,22 +1920,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1922,22 +1959,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1964,22 +1998,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2006,22 +2037,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2048,22 +2076,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2090,22 +2115,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2132,22 +2154,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2174,22 +2193,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2216,22 +2232,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="L47" t="inlineStr">
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2258,22 +2271,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2300,22 +2310,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2342,22 +2349,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="L50" t="inlineStr">
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2384,22 +2388,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="L51" t="inlineStr">
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2424,24 +2425,23 @@
         <v>-21145.89822168875</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1.106227701993704</v>
       </c>
       <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+        <v>1.00669014084507</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2466,24 +2466,15 @@
         <v>-21965.29162168875</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2508,24 +2499,15 @@
         <v>-19535.07462168875</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2550,24 +2532,15 @@
         <v>-19585.07462168875</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2592,24 +2565,15 @@
         <v>-19600.78102168875</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2636,22 +2600,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2678,24 +2633,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1.098400416377516</v>
-      </c>
-      <c r="N58" t="n">
-        <v>1.067925899019252</v>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2720,18 +2664,15 @@
         <v>-12146.2210676007</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2758,16 +2699,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2794,16 +2732,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2828,18 +2763,15 @@
         <v>-12279.7610676007</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2864,18 +2796,15 @@
         <v>-12437.2409676007</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2900,18 +2829,15 @@
         <v>-12427.2409676007</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2938,16 +2864,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2974,16 +2897,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3010,16 +2930,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3046,16 +2963,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3082,16 +2996,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3118,16 +3029,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3154,16 +3062,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3190,16 +3095,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3226,16 +3128,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3262,16 +3161,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3298,16 +3194,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3334,16 +3227,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3370,16 +3260,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3406,16 +3293,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3442,16 +3326,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3478,16 +3359,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3514,16 +3392,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3550,16 +3425,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3586,16 +3458,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3622,16 +3491,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3658,16 +3524,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3694,16 +3557,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3728,18 +3588,15 @@
         <v>-10795.6044676007</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3764,18 +3621,15 @@
         <v>-11081.9544676007</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3800,18 +3654,15 @@
         <v>-11081.9544676007</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3838,16 +3689,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3872,18 +3720,15 @@
         <v>-6305.057967600704</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3908,18 +3753,15 @@
         <v>-6305.057967600704</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3946,16 +3788,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3982,16 +3821,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4018,16 +3854,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4052,18 +3885,15 @@
         <v>-6169.602167600704</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4090,16 +3920,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4126,16 +3953,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4160,18 +3984,15 @@
         <v>-3256.341367600704</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4196,18 +4017,15 @@
         <v>-4191.604267600704</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4234,16 +4052,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4270,16 +4085,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4306,16 +4118,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4342,16 +4151,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4378,16 +4184,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4414,16 +4217,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4450,16 +4250,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4486,16 +4283,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4522,16 +4316,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4558,16 +4349,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4594,16 +4382,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4630,16 +4415,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4666,16 +4448,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4702,16 +4481,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4738,16 +4514,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4774,16 +4547,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4810,16 +4580,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4846,16 +4613,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4882,16 +4646,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4918,16 +4679,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4954,16 +4712,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4990,16 +4745,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5026,16 +4778,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5062,16 +4811,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5096,18 +4842,15 @@
         <v>7638.657906695282</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5132,18 +4875,15 @@
         <v>8164.348306695281</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5168,18 +4908,15 @@
         <v>8291.348306695281</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5204,20 +4941,17 @@
         <v>8106.684706695281</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest TRUE.xlsx
+++ b/BackTest/2020-01-16 BackTest TRUE.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,14 +517,10 @@
         <v>14906.60922650056</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>284</v>
-      </c>
-      <c r="J4" t="n">
-        <v>284</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
@@ -554,1030 +550,864 @@
         <v>14906.60922650056</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="E6" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.1097</v>
+      </c>
+      <c r="G6" t="n">
+        <v>14908.71892650056</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="C7" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="E7" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="F7" t="n">
+        <v>960.9031</v>
+      </c>
+      <c r="G7" t="n">
+        <v>14908.71892650056</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="C8" t="n">
+        <v>287</v>
+      </c>
+      <c r="D8" t="n">
+        <v>287</v>
+      </c>
+      <c r="E8" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="F8" t="n">
+        <v>752.2111</v>
+      </c>
+      <c r="G8" t="n">
+        <v>15660.93002650056</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
         <v>284</v>
       </c>
-      <c r="J5" t="n">
+      <c r="C9" t="n">
+        <v>294</v>
+      </c>
+      <c r="D9" t="n">
+        <v>294</v>
+      </c>
+      <c r="E9" t="n">
+        <v>283</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5156.7908</v>
+      </c>
+      <c r="G9" t="n">
+        <v>20817.72082650056</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>291</v>
+      </c>
+      <c r="C10" t="n">
+        <v>291</v>
+      </c>
+      <c r="D10" t="n">
+        <v>291</v>
+      </c>
+      <c r="E10" t="n">
+        <v>291</v>
+      </c>
+      <c r="F10" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20807.73082650056</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>291</v>
+      </c>
+      <c r="C11" t="n">
+        <v>291</v>
+      </c>
+      <c r="D11" t="n">
+        <v>291</v>
+      </c>
+      <c r="E11" t="n">
+        <v>291</v>
+      </c>
+      <c r="F11" t="n">
+        <v>50</v>
+      </c>
+      <c r="G11" t="n">
+        <v>20807.73082650056</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>291</v>
+      </c>
+      <c r="C12" t="n">
+        <v>291</v>
+      </c>
+      <c r="D12" t="n">
+        <v>291</v>
+      </c>
+      <c r="E12" t="n">
+        <v>291</v>
+      </c>
+      <c r="F12" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="G12" t="n">
+        <v>20807.73082650056</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>291</v>
+      </c>
+      <c r="C13" t="n">
+        <v>291</v>
+      </c>
+      <c r="D13" t="n">
+        <v>291</v>
+      </c>
+      <c r="E13" t="n">
+        <v>291</v>
+      </c>
+      <c r="F13" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="G13" t="n">
+        <v>20807.73082650056</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>294</v>
+      </c>
+      <c r="C14" t="n">
+        <v>294</v>
+      </c>
+      <c r="D14" t="n">
+        <v>294</v>
+      </c>
+      <c r="E14" t="n">
+        <v>294</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3.0809</v>
+      </c>
+      <c r="G14" t="n">
+        <v>20810.81172650056</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>291</v>
+      </c>
+      <c r="C15" t="n">
+        <v>278</v>
+      </c>
+      <c r="D15" t="n">
+        <v>291</v>
+      </c>
+      <c r="E15" t="n">
+        <v>278</v>
+      </c>
+      <c r="F15" t="n">
+        <v>439.9478</v>
+      </c>
+      <c r="G15" t="n">
+        <v>20370.86392650056</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>278</v>
+      </c>
+      <c r="C16" t="n">
+        <v>279</v>
+      </c>
+      <c r="D16" t="n">
+        <v>279</v>
+      </c>
+      <c r="E16" t="n">
+        <v>278</v>
+      </c>
+      <c r="F16" t="n">
+        <v>278.069</v>
+      </c>
+      <c r="G16" t="n">
+        <v>20648.93292650056</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>288.9</v>
+      </c>
+      <c r="C17" t="n">
+        <v>288.9</v>
+      </c>
+      <c r="D17" t="n">
+        <v>288.9</v>
+      </c>
+      <c r="E17" t="n">
+        <v>288.9</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3.1388</v>
+      </c>
+      <c r="G17" t="n">
+        <v>20652.07172650056</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>279</v>
+      </c>
+      <c r="C18" t="n">
+        <v>281.9</v>
+      </c>
+      <c r="D18" t="n">
+        <v>283.9</v>
+      </c>
+      <c r="E18" t="n">
+        <v>275.3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>64175.2881</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-43523.21637349944</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>282.1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>283</v>
+      </c>
+      <c r="D19" t="n">
+        <v>283</v>
+      </c>
+      <c r="E19" t="n">
+        <v>282</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1587.0835</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-41936.13287349944</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
         <v>284</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="C20" t="n">
+        <v>284.2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>284.2</v>
+      </c>
+      <c r="E20" t="n">
+        <v>283</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1384.7838</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-40551.34907349944</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>280.2</v>
+      </c>
+      <c r="C21" t="n">
+        <v>275.6</v>
+      </c>
+      <c r="D21" t="n">
+        <v>280.2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>275.6</v>
+      </c>
+      <c r="F21" t="n">
+        <v>62894.8566</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-103446.2056734994</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>284.9</v>
+      </c>
+      <c r="C22" t="n">
+        <v>284.8</v>
+      </c>
+      <c r="D22" t="n">
+        <v>284.9</v>
+      </c>
+      <c r="E22" t="n">
+        <v>283</v>
+      </c>
+      <c r="F22" t="n">
+        <v>668.079</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-102778.1266734994</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>284</v>
+      </c>
+      <c r="C23" t="n">
+        <v>284</v>
+      </c>
+      <c r="D23" t="n">
+        <v>284.9</v>
+      </c>
+      <c r="E23" t="n">
+        <v>284</v>
+      </c>
+      <c r="F23" t="n">
+        <v>399.969</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-103178.0956734994</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>284</v>
+      </c>
+      <c r="C24" t="n">
+        <v>288.3</v>
+      </c>
+      <c r="D24" t="n">
+        <v>288.3</v>
+      </c>
+      <c r="E24" t="n">
+        <v>284</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1047.3636</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-102130.7320734994</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>287.2</v>
+      </c>
+      <c r="C25" t="n">
+        <v>287.2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>287.2</v>
+      </c>
+      <c r="E25" t="n">
+        <v>287.2</v>
+      </c>
+      <c r="F25" t="n">
+        <v>300.854</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-102431.5860734994</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>287.2</v>
+      </c>
+      <c r="C26" t="n">
+        <v>287.2</v>
+      </c>
+      <c r="D26" t="n">
+        <v>287.2</v>
+      </c>
+      <c r="E26" t="n">
+        <v>287.2</v>
+      </c>
+      <c r="F26" t="n">
+        <v>371.417</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-102431.5860734994</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>288.2</v>
+      </c>
+      <c r="C27" t="n">
+        <v>288.2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>288.2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>288.2</v>
+      </c>
+      <c r="F27" t="n">
+        <v>20</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-102411.5860734994</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>287.2</v>
+      </c>
+      <c r="J27" t="n">
+        <v>287.2</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>288.2</v>
+      </c>
+      <c r="C28" t="n">
+        <v>288.2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>288.2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>288.2</v>
+      </c>
+      <c r="F28" t="n">
+        <v>10.3095</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-102411.5860734994</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>288.2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>287.2</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="C6" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="D6" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="E6" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.1097</v>
-      </c>
-      <c r="G6" t="n">
-        <v>14908.71892650056</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>284</v>
-      </c>
-      <c r="J6" t="n">
-        <v>284</v>
-      </c>
-      <c r="K6" t="inlineStr">
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>292.9</v>
+      </c>
+      <c r="C29" t="n">
+        <v>292.9</v>
+      </c>
+      <c r="D29" t="n">
+        <v>292.9</v>
+      </c>
+      <c r="E29" t="n">
+        <v>292.9</v>
+      </c>
+      <c r="F29" t="n">
+        <v>111.0393</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-102300.5467734994</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>288.2</v>
+      </c>
+      <c r="J29" t="n">
+        <v>287.2</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="C7" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="D7" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="E7" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="F7" t="n">
-        <v>960.9031</v>
-      </c>
-      <c r="G7" t="n">
-        <v>14908.71892650056</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="J7" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="C8" t="n">
-        <v>287</v>
-      </c>
-      <c r="D8" t="n">
-        <v>287</v>
-      </c>
-      <c r="E8" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="F8" t="n">
-        <v>752.2111</v>
-      </c>
-      <c r="G8" t="n">
-        <v>15660.93002650056</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="J8" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="K8" t="inlineStr">
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>292.9</v>
+      </c>
+      <c r="C30" t="n">
+        <v>293.9</v>
+      </c>
+      <c r="D30" t="n">
+        <v>293.9</v>
+      </c>
+      <c r="E30" t="n">
+        <v>290</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3014.1737</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-99286.37307349945</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>292.9</v>
+      </c>
+      <c r="J30" t="n">
+        <v>287.2</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>284</v>
-      </c>
-      <c r="C9" t="n">
-        <v>294</v>
-      </c>
-      <c r="D9" t="n">
-        <v>294</v>
-      </c>
-      <c r="E9" t="n">
-        <v>283</v>
-      </c>
-      <c r="F9" t="n">
-        <v>5156.7908</v>
-      </c>
-      <c r="G9" t="n">
-        <v>20817.72082650056</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>287</v>
-      </c>
-      <c r="J9" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>291</v>
-      </c>
-      <c r="C10" t="n">
-        <v>291</v>
-      </c>
-      <c r="D10" t="n">
-        <v>291</v>
-      </c>
-      <c r="E10" t="n">
-        <v>291</v>
-      </c>
-      <c r="F10" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="G10" t="n">
-        <v>20807.73082650056</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>294</v>
-      </c>
-      <c r="J10" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>291</v>
-      </c>
-      <c r="C11" t="n">
-        <v>291</v>
-      </c>
-      <c r="D11" t="n">
-        <v>291</v>
-      </c>
-      <c r="E11" t="n">
-        <v>291</v>
-      </c>
-      <c r="F11" t="n">
-        <v>50</v>
-      </c>
-      <c r="G11" t="n">
-        <v>20807.73082650056</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>291</v>
-      </c>
-      <c r="C12" t="n">
-        <v>291</v>
-      </c>
-      <c r="D12" t="n">
-        <v>291</v>
-      </c>
-      <c r="E12" t="n">
-        <v>291</v>
-      </c>
-      <c r="F12" t="n">
-        <v>12.41</v>
-      </c>
-      <c r="G12" t="n">
-        <v>20807.73082650056</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>291</v>
-      </c>
-      <c r="C13" t="n">
-        <v>291</v>
-      </c>
-      <c r="D13" t="n">
-        <v>291</v>
-      </c>
-      <c r="E13" t="n">
-        <v>291</v>
-      </c>
-      <c r="F13" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="G13" t="n">
-        <v>20807.73082650056</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>291</v>
-      </c>
-      <c r="J13" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>294</v>
-      </c>
-      <c r="C14" t="n">
-        <v>294</v>
-      </c>
-      <c r="D14" t="n">
-        <v>294</v>
-      </c>
-      <c r="E14" t="n">
-        <v>294</v>
-      </c>
-      <c r="F14" t="n">
-        <v>3.0809</v>
-      </c>
-      <c r="G14" t="n">
-        <v>20810.81172650056</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>291</v>
-      </c>
-      <c r="J14" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>291</v>
-      </c>
-      <c r="C15" t="n">
-        <v>278</v>
-      </c>
-      <c r="D15" t="n">
-        <v>291</v>
-      </c>
-      <c r="E15" t="n">
-        <v>278</v>
-      </c>
-      <c r="F15" t="n">
-        <v>439.9478</v>
-      </c>
-      <c r="G15" t="n">
-        <v>20370.86392650056</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>294</v>
-      </c>
-      <c r="J15" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>278</v>
-      </c>
-      <c r="C16" t="n">
-        <v>279</v>
-      </c>
-      <c r="D16" t="n">
-        <v>279</v>
-      </c>
-      <c r="E16" t="n">
-        <v>278</v>
-      </c>
-      <c r="F16" t="n">
-        <v>278.069</v>
-      </c>
-      <c r="G16" t="n">
-        <v>20648.93292650056</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>278</v>
-      </c>
-      <c r="J16" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>288.9</v>
-      </c>
-      <c r="C17" t="n">
-        <v>288.9</v>
-      </c>
-      <c r="D17" t="n">
-        <v>288.9</v>
-      </c>
-      <c r="E17" t="n">
-        <v>288.9</v>
-      </c>
-      <c r="F17" t="n">
-        <v>3.1388</v>
-      </c>
-      <c r="G17" t="n">
-        <v>20652.07172650056</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>279</v>
-      </c>
-      <c r="J17" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>279</v>
-      </c>
-      <c r="C18" t="n">
-        <v>281.9</v>
-      </c>
-      <c r="D18" t="n">
-        <v>283.9</v>
-      </c>
-      <c r="E18" t="n">
-        <v>275.3</v>
-      </c>
-      <c r="F18" t="n">
-        <v>64175.2881</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-43523.21637349944</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>288.9</v>
-      </c>
-      <c r="J18" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>282.1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>283</v>
-      </c>
-      <c r="D19" t="n">
-        <v>283</v>
-      </c>
-      <c r="E19" t="n">
-        <v>282</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1587.0835</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-41936.13287349944</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>281.9</v>
-      </c>
-      <c r="J19" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>284</v>
-      </c>
-      <c r="C20" t="n">
-        <v>284.2</v>
-      </c>
-      <c r="D20" t="n">
-        <v>284.2</v>
-      </c>
-      <c r="E20" t="n">
-        <v>283</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1384.7838</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-40551.34907349944</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>283</v>
-      </c>
-      <c r="J20" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>280.2</v>
-      </c>
-      <c r="C21" t="n">
-        <v>275.6</v>
-      </c>
-      <c r="D21" t="n">
-        <v>280.2</v>
-      </c>
-      <c r="E21" t="n">
-        <v>275.6</v>
-      </c>
-      <c r="F21" t="n">
-        <v>62894.8566</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-103446.2056734994</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>284.9</v>
-      </c>
-      <c r="C22" t="n">
-        <v>284.8</v>
-      </c>
-      <c r="D22" t="n">
-        <v>284.9</v>
-      </c>
-      <c r="E22" t="n">
-        <v>283</v>
-      </c>
-      <c r="F22" t="n">
-        <v>668.079</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-102778.1266734994</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>275.6</v>
-      </c>
-      <c r="J22" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>284</v>
-      </c>
-      <c r="C23" t="n">
-        <v>284</v>
-      </c>
-      <c r="D23" t="n">
-        <v>284.9</v>
-      </c>
-      <c r="E23" t="n">
-        <v>284</v>
-      </c>
-      <c r="F23" t="n">
-        <v>399.969</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-103178.0956734994</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>284.8</v>
-      </c>
-      <c r="J23" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>284</v>
-      </c>
-      <c r="C24" t="n">
-        <v>288.3</v>
-      </c>
-      <c r="D24" t="n">
-        <v>288.3</v>
-      </c>
-      <c r="E24" t="n">
-        <v>284</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1047.3636</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-102130.7320734994</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>284</v>
-      </c>
-      <c r="J24" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="C25" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="D25" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="E25" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="F25" t="n">
-        <v>300.854</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-102431.5860734994</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>288.3</v>
-      </c>
-      <c r="J25" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="C26" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="D26" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="E26" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="F26" t="n">
-        <v>371.417</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-102431.5860734994</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="J26" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="C27" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="D27" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="E27" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="F27" t="n">
-        <v>20</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-102411.5860734994</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="J27" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="C28" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="D28" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="E28" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="F28" t="n">
-        <v>10.3095</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-102411.5860734994</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="J28" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>292.9</v>
-      </c>
-      <c r="C29" t="n">
-        <v>292.9</v>
-      </c>
-      <c r="D29" t="n">
-        <v>292.9</v>
-      </c>
-      <c r="E29" t="n">
-        <v>292.9</v>
-      </c>
-      <c r="F29" t="n">
-        <v>111.0393</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-102300.5467734994</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>292.9</v>
-      </c>
-      <c r="C30" t="n">
-        <v>293.9</v>
-      </c>
-      <c r="D30" t="n">
-        <v>293.9</v>
-      </c>
-      <c r="E30" t="n">
-        <v>290</v>
-      </c>
-      <c r="F30" t="n">
-        <v>3014.1737</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-99286.37307349945</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1436,13 @@
         <v>-50101.16917349945</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>293.9</v>
+      </c>
       <c r="J31" t="n">
-        <v>285.9</v>
+        <v>287.2</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1649,7 +1481,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>285.9</v>
+        <v>287.2</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1688,7 +1520,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>285.9</v>
+        <v>287.2</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1727,7 +1559,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>285.9</v>
+        <v>287.2</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1766,7 +1598,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>285.9</v>
+        <v>287.2</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1805,7 +1637,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>285.9</v>
+        <v>287.2</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1844,7 +1676,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>285.9</v>
+        <v>287.2</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1883,7 +1715,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>285.9</v>
+        <v>287.2</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1922,7 +1754,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>285.9</v>
+        <v>287.2</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1961,7 +1793,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>285.9</v>
+        <v>287.2</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -2000,7 +1832,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>285.9</v>
+        <v>287.2</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2039,7 +1871,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>285.9</v>
+        <v>287.2</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2078,7 +1910,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>285.9</v>
+        <v>287.2</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2117,7 +1949,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>285.9</v>
+        <v>287.2</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2156,7 +1988,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>285.9</v>
+        <v>287.2</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2195,7 +2027,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>285.9</v>
+        <v>287.2</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2234,7 +2066,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>285.9</v>
+        <v>287.2</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2273,7 +2105,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>285.9</v>
+        <v>287.2</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2312,7 +2144,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>285.9</v>
+        <v>287.2</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2351,7 +2183,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>285.9</v>
+        <v>287.2</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2390,7 +2222,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>285.9</v>
+        <v>287.2</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2425,254 +2257,296 @@
         <v>-21145.89822168875</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>285.9</v>
+        <v>287.2</v>
       </c>
       <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>317.2</v>
+      </c>
+      <c r="C53" t="n">
+        <v>317.2</v>
+      </c>
+      <c r="D53" t="n">
+        <v>317.2</v>
+      </c>
+      <c r="E53" t="n">
+        <v>317.2</v>
+      </c>
+      <c r="F53" t="n">
+        <v>819.3934</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-21965.29162168875</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>287.2</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>317.6</v>
+      </c>
+      <c r="C54" t="n">
+        <v>317.9</v>
+      </c>
+      <c r="D54" t="n">
+        <v>317.9</v>
+      </c>
+      <c r="E54" t="n">
+        <v>317.6</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2430.217</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-19535.07462168875</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>287.2</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>317.5</v>
+      </c>
+      <c r="C55" t="n">
+        <v>317.5</v>
+      </c>
+      <c r="D55" t="n">
+        <v>317.5</v>
+      </c>
+      <c r="E55" t="n">
+        <v>317.5</v>
+      </c>
+      <c r="F55" t="n">
+        <v>50</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-19585.07462168875</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>287.2</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>314.9</v>
+      </c>
+      <c r="C56" t="n">
+        <v>314.9</v>
+      </c>
+      <c r="D56" t="n">
+        <v>314.9</v>
+      </c>
+      <c r="E56" t="n">
+        <v>314.9</v>
+      </c>
+      <c r="F56" t="n">
+        <v>15.7064</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-19600.78102168875</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>287.2</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="C57" t="n">
+        <v>317.9</v>
+      </c>
+      <c r="D57" t="n">
+        <v>318</v>
+      </c>
+      <c r="E57" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="F57" t="n">
+        <v>6490.0342</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-13110.74682168875</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>287.2</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>318</v>
+      </c>
+      <c r="C58" t="n">
+        <v>318</v>
+      </c>
+      <c r="D58" t="n">
+        <v>318</v>
+      </c>
+      <c r="E58" t="n">
+        <v>318</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1010.89665408805</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-12099.8501676007</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>287.2</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>317.9</v>
+      </c>
+      <c r="C59" t="n">
+        <v>317.9</v>
+      </c>
+      <c r="D59" t="n">
+        <v>317.9</v>
+      </c>
+      <c r="E59" t="n">
+        <v>317.9</v>
+      </c>
+      <c r="F59" t="n">
+        <v>46.3709</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-12146.2210676007</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>287.2</v>
+      </c>
+      <c r="K59" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L52" t="n">
-        <v>1.106227701993704</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1.00669014084507</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>317.2</v>
-      </c>
-      <c r="C53" t="n">
-        <v>317.2</v>
-      </c>
-      <c r="D53" t="n">
-        <v>317.2</v>
-      </c>
-      <c r="E53" t="n">
-        <v>317.2</v>
-      </c>
-      <c r="F53" t="n">
-        <v>819.3934</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-21965.29162168875</v>
-      </c>
-      <c r="H53" t="n">
-        <v>3</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>317.6</v>
-      </c>
-      <c r="C54" t="n">
-        <v>317.9</v>
-      </c>
-      <c r="D54" t="n">
-        <v>317.9</v>
-      </c>
-      <c r="E54" t="n">
-        <v>317.6</v>
-      </c>
-      <c r="F54" t="n">
-        <v>2430.217</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-19535.07462168875</v>
-      </c>
-      <c r="H54" t="n">
-        <v>3</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>317.5</v>
-      </c>
-      <c r="C55" t="n">
-        <v>317.5</v>
-      </c>
-      <c r="D55" t="n">
-        <v>317.5</v>
-      </c>
-      <c r="E55" t="n">
-        <v>317.5</v>
-      </c>
-      <c r="F55" t="n">
-        <v>50</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-19585.07462168875</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>314.9</v>
-      </c>
-      <c r="C56" t="n">
-        <v>314.9</v>
-      </c>
-      <c r="D56" t="n">
-        <v>314.9</v>
-      </c>
-      <c r="E56" t="n">
-        <v>314.9</v>
-      </c>
-      <c r="F56" t="n">
-        <v>15.7064</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-19600.78102168875</v>
-      </c>
-      <c r="H56" t="n">
-        <v>3</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>317.8</v>
-      </c>
-      <c r="C57" t="n">
-        <v>317.9</v>
-      </c>
-      <c r="D57" t="n">
-        <v>318</v>
-      </c>
-      <c r="E57" t="n">
-        <v>317.8</v>
-      </c>
-      <c r="F57" t="n">
-        <v>6490.0342</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-13110.74682168875</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>318</v>
-      </c>
-      <c r="C58" t="n">
-        <v>318</v>
-      </c>
-      <c r="D58" t="n">
-        <v>318</v>
-      </c>
-      <c r="E58" t="n">
-        <v>318</v>
-      </c>
-      <c r="F58" t="n">
-        <v>1010.89665408805</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-12099.8501676007</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>317.9</v>
-      </c>
-      <c r="C59" t="n">
-        <v>317.9</v>
-      </c>
-      <c r="D59" t="n">
-        <v>317.9</v>
-      </c>
-      <c r="E59" t="n">
-        <v>317.9</v>
-      </c>
-      <c r="F59" t="n">
-        <v>46.3709</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-12146.2210676007</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>1.101894150417827</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1.067925899019252</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2697,7 +2571,7 @@
         <v>-12215.8110676007</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2730,7 +2604,7 @@
         <v>-12215.8110676007</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2763,7 +2637,7 @@
         <v>-12279.7610676007</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2796,7 +2670,7 @@
         <v>-12437.2409676007</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2829,7 +2703,7 @@
         <v>-12427.2409676007</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2994,7 +2868,7 @@
         <v>-11644.9434676007</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3027,7 +2901,7 @@
         <v>-12246.1032676007</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3093,7 +2967,7 @@
         <v>-13379.0264676007</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3126,7 +3000,7 @@
         <v>-12795.6558676007</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3159,7 +3033,7 @@
         <v>-12864.8808676007</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3192,7 +3066,7 @@
         <v>-11374.26786760071</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3225,7 +3099,7 @@
         <v>-11518.0428676007</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3258,7 +3132,7 @@
         <v>-11217.99346760071</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3291,7 +3165,7 @@
         <v>-11373.74346760071</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3324,7 +3198,7 @@
         <v>-9507.330467600705</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3357,7 +3231,7 @@
         <v>-10389.3304676007</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3390,7 +3264,7 @@
         <v>-10967.3204676007</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3423,7 +3297,7 @@
         <v>-10442.3204676007</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3456,7 +3330,7 @@
         <v>-10464.8556676007</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3555,7 +3429,7 @@
         <v>-11019.7795676007</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3588,7 +3462,7 @@
         <v>-10795.6044676007</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3621,7 +3495,7 @@
         <v>-11081.9544676007</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3654,7 +3528,7 @@
         <v>-11081.9544676007</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3687,7 +3561,7 @@
         <v>-9133.984667600704</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3720,7 +3594,7 @@
         <v>-6305.057967600704</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3753,7 +3627,7 @@
         <v>-6305.057967600704</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3786,7 +3660,7 @@
         <v>-6303.057967600704</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3819,7 +3693,7 @@
         <v>-6355.602167600704</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3852,7 +3726,7 @@
         <v>-6169.602167600704</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3885,7 +3759,7 @@
         <v>-6169.602167600704</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3918,7 +3792,7 @@
         <v>-6169.602167600704</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3951,7 +3825,7 @@
         <v>-6019.973367600704</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3984,7 +3858,7 @@
         <v>-3256.341367600704</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4017,7 +3891,7 @@
         <v>-4191.604267600704</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4050,7 +3924,7 @@
         <v>-4501.604267600704</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4083,7 +3957,7 @@
         <v>-4341.987467600704</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4116,7 +3990,7 @@
         <v>-4521.422267600704</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4149,7 +4023,7 @@
         <v>-4571.422267600704</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4842,7 +4716,7 @@
         <v>7638.657906695282</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4875,7 +4749,7 @@
         <v>8164.348306695281</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4908,7 +4782,7 @@
         <v>8291.348306695281</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4941,7 +4815,7 @@
         <v>8106.684706695281</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4952,6 +4826,6 @@
       <c r="M128" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest TRUE.xlsx
+++ b/BackTest/2020-01-16 BackTest TRUE.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1276,14 +1276,10 @@
         <v>-102411.5860734994</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="J27" t="n">
-        <v>287.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
@@ -1313,19 +1309,11 @@
         <v>-102411.5860734994</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="J28" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1354,19 +1342,11 @@
         <v>-102300.5467734994</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="J29" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1395,19 +1375,11 @@
         <v>-99286.37307349945</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>292.9</v>
-      </c>
-      <c r="J30" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1436,19 +1408,11 @@
         <v>-50101.16917349945</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>293.9</v>
-      </c>
-      <c r="J31" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1480,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1519,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1558,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1597,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1636,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1675,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1714,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1753,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1789,17 +1705,11 @@
         <v>-19634.43777349945</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1828,17 +1738,11 @@
         <v>-29553.60327349945</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1867,17 +1771,11 @@
         <v>-22064.76667349945</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1906,17 +1804,11 @@
         <v>-20953.79657349945</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1945,17 +1837,11 @@
         <v>-20953.79657349945</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1984,17 +1870,11 @@
         <v>-21138.64397349945</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2023,17 +1903,11 @@
         <v>-20363.05427349945</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2062,17 +1936,11 @@
         <v>-17619.27027349945</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2101,17 +1969,11 @@
         <v>-17619.27027349945</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2143,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2182,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2221,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2260,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2299,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2338,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2377,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2416,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2455,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2494,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2530,23 +2332,15 @@
         <v>-12146.2210676007</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
-        <v>1.101894150417827</v>
-      </c>
-      <c r="M59" t="n">
-        <v>1.067925899019252</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2571,7 +2365,7 @@
         <v>-12215.8110676007</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2604,7 +2398,7 @@
         <v>-12215.8110676007</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2637,7 +2431,7 @@
         <v>-12279.7610676007</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2670,7 +2464,7 @@
         <v>-12437.2409676007</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2868,7 +2662,7 @@
         <v>-11644.9434676007</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2901,7 +2695,7 @@
         <v>-12246.1032676007</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2967,7 +2761,7 @@
         <v>-13379.0264676007</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3000,7 +2794,7 @@
         <v>-12795.6558676007</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3033,7 +2827,7 @@
         <v>-12864.8808676007</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3066,7 +2860,7 @@
         <v>-11374.26786760071</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3099,7 +2893,7 @@
         <v>-11518.0428676007</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3132,7 +2926,7 @@
         <v>-11217.99346760071</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3165,7 +2959,7 @@
         <v>-11373.74346760071</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3198,7 +2992,7 @@
         <v>-9507.330467600705</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3231,7 +3025,7 @@
         <v>-10389.3304676007</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3264,7 +3058,7 @@
         <v>-10967.3204676007</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3297,7 +3091,7 @@
         <v>-10442.3204676007</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3330,7 +3124,7 @@
         <v>-10464.8556676007</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3429,7 +3223,7 @@
         <v>-11019.7795676007</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3462,7 +3256,7 @@
         <v>-10795.6044676007</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3495,7 +3289,7 @@
         <v>-11081.9544676007</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3528,7 +3322,7 @@
         <v>-11081.9544676007</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3561,7 +3355,7 @@
         <v>-9133.984667600704</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3594,7 +3388,7 @@
         <v>-6305.057967600704</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3627,7 +3421,7 @@
         <v>-6305.057967600704</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3660,7 +3454,7 @@
         <v>-6303.057967600704</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3693,7 +3487,7 @@
         <v>-6355.602167600704</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3726,7 +3520,7 @@
         <v>-6169.602167600704</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3759,7 +3553,7 @@
         <v>-6169.602167600704</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3792,7 +3586,7 @@
         <v>-6169.602167600704</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3825,7 +3619,7 @@
         <v>-6019.973367600704</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3858,7 +3652,7 @@
         <v>-3256.341367600704</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3891,7 +3685,7 @@
         <v>-4191.604267600704</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3924,7 +3718,7 @@
         <v>-4501.604267600704</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3957,11 +3751,17 @@
         <v>-4341.987467600704</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>298</v>
+      </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3990,11 +3790,17 @@
         <v>-4521.422267600704</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>299</v>
+      </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4023,11 +3829,15 @@
         <v>-4571.422267600704</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4056,11 +3866,17 @@
         <v>-4571.422267600704</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>296</v>
+      </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4089,11 +3905,17 @@
         <v>-3811.422267600704</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>296</v>
+      </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4122,11 +3944,17 @@
         <v>-3753.924267600704</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>296.9</v>
+      </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4159,7 +3987,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4192,7 +4024,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4225,7 +4061,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4258,7 +4098,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4291,7 +4135,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4324,7 +4172,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4357,7 +4209,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4390,7 +4246,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4423,7 +4283,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4456,7 +4320,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4489,7 +4357,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4522,7 +4394,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4555,7 +4431,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4588,7 +4468,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4621,7 +4505,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4654,7 +4542,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4687,7 +4579,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4720,7 +4616,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4753,7 +4653,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4782,11 +4686,15 @@
         <v>8291.348306695281</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4819,13 +4727,17 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
       <c r="M128" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest TRUE.xlsx
+++ b/BackTest/2020-01-16 BackTest TRUE.xlsx
@@ -451,7 +451,7 @@
         <v>14906.60922650056</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>14906.60922650056</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>284</v>
+      </c>
+      <c r="J3" t="n">
+        <v>284</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>14906.60922650056</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>284</v>
+      </c>
+      <c r="J4" t="n">
+        <v>284</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>14906.60922650056</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>284</v>
+      </c>
+      <c r="J5" t="n">
+        <v>284</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>14908.71892650056</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>284</v>
+      </c>
+      <c r="J6" t="n">
+        <v>284</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,19 @@
         <v>14908.71892650056</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="J7" t="n">
+        <v>284</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +681,19 @@
         <v>15660.93002650056</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>285.9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>284</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +722,19 @@
         <v>20817.72082650056</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>287</v>
+      </c>
+      <c r="J9" t="n">
+        <v>284</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +763,19 @@
         <v>20807.73082650056</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>294</v>
+      </c>
+      <c r="J10" t="n">
+        <v>284</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +804,19 @@
         <v>20807.73082650056</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>291</v>
+      </c>
+      <c r="J11" t="n">
+        <v>284</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +845,19 @@
         <v>20807.73082650056</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>291</v>
+      </c>
+      <c r="J12" t="n">
+        <v>284</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +886,19 @@
         <v>20807.73082650056</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>291</v>
+      </c>
+      <c r="J13" t="n">
+        <v>284</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +927,19 @@
         <v>20810.81172650056</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>291</v>
+      </c>
+      <c r="J14" t="n">
+        <v>284</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +971,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>284</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +1007,19 @@
         <v>20648.93292650056</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>278</v>
+      </c>
+      <c r="J16" t="n">
+        <v>284</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1048,19 @@
         <v>20652.07172650056</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>279</v>
+      </c>
+      <c r="J17" t="n">
+        <v>284</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1092,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>284</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1131,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>284</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1170,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>284</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1206,19 @@
         <v>-103446.2056734994</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>284.2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>284</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1247,19 @@
         <v>-102778.1266734994</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>275.6</v>
+      </c>
+      <c r="J22" t="n">
+        <v>284</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1291,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>284</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1330,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>284</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1369,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>284</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1405,19 @@
         <v>-102431.5860734994</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>287.2</v>
+      </c>
+      <c r="J26" t="n">
+        <v>284</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1446,19 @@
         <v>-102411.5860734994</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>287.2</v>
+      </c>
+      <c r="J27" t="n">
+        <v>284</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1487,19 @@
         <v>-102411.5860734994</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>288.2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>284</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1528,19 @@
         <v>-102300.5467734994</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>288.2</v>
+      </c>
+      <c r="J29" t="n">
+        <v>284</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1569,19 @@
         <v>-99286.37307349945</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>292.9</v>
+      </c>
+      <c r="J30" t="n">
+        <v>284</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1610,19 @@
         <v>-50101.16917349945</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>293.9</v>
+      </c>
+      <c r="J31" t="n">
+        <v>284</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1651,19 @@
         <v>-49410.81917349945</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>296</v>
+      </c>
+      <c r="J32" t="n">
+        <v>284</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1695,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>284</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1734,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>284</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1773,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>284</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1812,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>284</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1851,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>284</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1890,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>284</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1929,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>284</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1965,17 @@
         <v>-19634.43777349945</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>284</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +2004,17 @@
         <v>-29553.60327349945</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>284</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +2043,17 @@
         <v>-22064.76667349945</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>284</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +2082,17 @@
         <v>-20953.79657349945</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>284</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +2121,17 @@
         <v>-20953.79657349945</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>284</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +2160,17 @@
         <v>-21138.64397349945</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>284</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2199,17 @@
         <v>-20363.05427349945</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>284</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2238,17 @@
         <v>-17619.27027349945</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>284</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2277,17 @@
         <v>-17619.27027349945</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>284</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2319,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>284</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2358,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>284</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2397,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>284</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2436,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>284</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2475,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>284</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2514,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>284</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2553,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>284</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2592,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>284</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2631,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>284</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2670,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>284</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2709,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>284</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,15 +2745,23 @@
         <v>-12215.8110676007</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>284</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>1.104154929577465</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1.01056338028169</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2959,7 +3347,7 @@
         <v>-11373.74346760071</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +3380,7 @@
         <v>-9507.330467600705</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3413,7 @@
         <v>-10389.3304676007</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3446,7 @@
         <v>-10967.3204676007</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3479,7 @@
         <v>-10442.3204676007</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3512,7 @@
         <v>-10464.8556676007</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3545,7 @@
         <v>-10928.80956760071</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3578,7 @@
         <v>-11228.80956760071</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3611,7 @@
         <v>-11019.7795676007</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3644,7 @@
         <v>-10795.6044676007</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3677,7 @@
         <v>-11081.9544676007</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3388,7 +3776,7 @@
         <v>-6305.057967600704</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3751,17 +4139,11 @@
         <v>-4341.987467600704</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>298</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3790,17 +4172,11 @@
         <v>-4521.422267600704</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>299</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3833,11 +4209,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3866,17 +4238,11 @@
         <v>-4571.422267600704</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>296</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3905,17 +4271,11 @@
         <v>-3811.422267600704</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>296</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3944,17 +4304,11 @@
         <v>-3753.924267600704</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>296.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3987,11 +4341,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4024,11 +4374,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4061,11 +4407,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4094,15 +4436,11 @@
         <v>-3080.759656621085</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4131,15 +4469,11 @@
         <v>-3130.759656621085</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4172,11 +4506,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4205,15 +4535,11 @@
         <v>-2983.296656621085</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4242,15 +4568,11 @@
         <v>-2983.296656621085</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4279,15 +4601,11 @@
         <v>189.7762433789153</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4320,11 +4638,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4353,15 +4667,11 @@
         <v>3347.198554363121</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4390,15 +4700,11 @@
         <v>3343.96126074059</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4427,15 +4733,11 @@
         <v>4063.621206695282</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4464,15 +4766,11 @@
         <v>7215.274406695282</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4501,15 +4799,11 @@
         <v>6916.250606695282</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4538,15 +4832,11 @@
         <v>7838.657906695282</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4575,15 +4865,11 @@
         <v>7838.657906695282</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4612,15 +4898,11 @@
         <v>7638.657906695282</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4649,15 +4931,11 @@
         <v>8164.348306695281</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4686,15 +4964,11 @@
         <v>8291.348306695281</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4723,15 +4997,11 @@
         <v>8106.684706695281</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-16 BackTest TRUE.xlsx
+++ b/BackTest/2020-01-16 BackTest TRUE.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M128"/>
+  <dimension ref="A1:L128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>118.0209</v>
       </c>
       <c r="G2" t="n">
-        <v>14906.60922650056</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>0.9791</v>
       </c>
       <c r="G3" t="n">
-        <v>14906.60922650056</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>284</v>
       </c>
       <c r="I3" t="n">
         <v>284</v>
       </c>
-      <c r="J3" t="n">
-        <v>284</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>50</v>
       </c>
       <c r="G4" t="n">
-        <v>14906.60922650056</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>284</v>
       </c>
       <c r="I4" t="n">
         <v>284</v>
       </c>
-      <c r="J4" t="n">
-        <v>284</v>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +545,23 @@
         <v>8.31</v>
       </c>
       <c r="G5" t="n">
-        <v>14906.60922650056</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>284</v>
       </c>
       <c r="I5" t="n">
         <v>284</v>
       </c>
-      <c r="J5" t="n">
-        <v>284</v>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,22 +583,19 @@
         <v>2.1097</v>
       </c>
       <c r="G6" t="n">
-        <v>14908.71892650056</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>284</v>
       </c>
       <c r="I6" t="n">
         <v>284</v>
       </c>
-      <c r="J6" t="n">
-        <v>284</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,26 +617,23 @@
         <v>960.9031</v>
       </c>
       <c r="G7" t="n">
-        <v>14908.71892650056</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>285.9</v>
       </c>
       <c r="I7" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="J7" t="n">
-        <v>284</v>
-      </c>
-      <c r="K7" t="inlineStr">
+        <v>284</v>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -678,26 +655,23 @@
         <v>752.2111</v>
       </c>
       <c r="G8" t="n">
-        <v>15660.93002650056</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>285.9</v>
       </c>
       <c r="I8" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="J8" t="n">
-        <v>284</v>
-      </c>
-      <c r="K8" t="inlineStr">
+        <v>284</v>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -719,26 +693,23 @@
         <v>5156.7908</v>
       </c>
       <c r="G9" t="n">
-        <v>20817.72082650056</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>287</v>
       </c>
       <c r="I9" t="n">
-        <v>287</v>
-      </c>
-      <c r="J9" t="n">
-        <v>284</v>
-      </c>
-      <c r="K9" t="inlineStr">
+        <v>284</v>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -760,26 +731,23 @@
         <v>9.99</v>
       </c>
       <c r="G10" t="n">
-        <v>20807.73082650056</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>294</v>
       </c>
       <c r="I10" t="n">
-        <v>294</v>
-      </c>
-      <c r="J10" t="n">
-        <v>284</v>
-      </c>
-      <c r="K10" t="inlineStr">
+        <v>284</v>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -801,26 +769,23 @@
         <v>50</v>
       </c>
       <c r="G11" t="n">
-        <v>20807.73082650056</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>291</v>
       </c>
       <c r="I11" t="n">
-        <v>291</v>
-      </c>
-      <c r="J11" t="n">
-        <v>284</v>
-      </c>
-      <c r="K11" t="inlineStr">
+        <v>284</v>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -842,26 +807,23 @@
         <v>12.41</v>
       </c>
       <c r="G12" t="n">
-        <v>20807.73082650056</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>291</v>
       </c>
       <c r="I12" t="n">
-        <v>291</v>
-      </c>
-      <c r="J12" t="n">
-        <v>284</v>
-      </c>
-      <c r="K12" t="inlineStr">
+        <v>284</v>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -883,26 +845,21 @@
         <v>19.99</v>
       </c>
       <c r="G13" t="n">
-        <v>20807.73082650056</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>291</v>
-      </c>
-      <c r="J13" t="n">
-        <v>284</v>
-      </c>
-      <c r="K13" t="inlineStr">
+        <v>284</v>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -924,26 +881,23 @@
         <v>3.0809</v>
       </c>
       <c r="G14" t="n">
-        <v>20810.81172650056</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>291</v>
       </c>
       <c r="I14" t="n">
-        <v>291</v>
-      </c>
-      <c r="J14" t="n">
-        <v>284</v>
-      </c>
-      <c r="K14" t="inlineStr">
+        <v>284</v>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -965,24 +919,21 @@
         <v>439.9478</v>
       </c>
       <c r="G15" t="n">
-        <v>20370.86392650056</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>284</v>
-      </c>
-      <c r="K15" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>284</v>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1004,26 +955,21 @@
         <v>278.069</v>
       </c>
       <c r="G16" t="n">
-        <v>20648.93292650056</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>278</v>
-      </c>
-      <c r="J16" t="n">
-        <v>284</v>
-      </c>
-      <c r="K16" t="inlineStr">
+        <v>284</v>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1045,26 +991,23 @@
         <v>3.1388</v>
       </c>
       <c r="G17" t="n">
-        <v>20652.07172650056</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>279</v>
       </c>
       <c r="I17" t="n">
-        <v>279</v>
-      </c>
-      <c r="J17" t="n">
-        <v>284</v>
-      </c>
-      <c r="K17" t="inlineStr">
+        <v>284</v>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1086,24 +1029,21 @@
         <v>64175.2881</v>
       </c>
       <c r="G18" t="n">
-        <v>-43523.21637349944</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>284</v>
-      </c>
-      <c r="K18" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>284</v>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1125,24 +1065,21 @@
         <v>1587.0835</v>
       </c>
       <c r="G19" t="n">
-        <v>-41936.13287349944</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>284</v>
-      </c>
-      <c r="K19" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>284</v>
+      </c>
+      <c r="J19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1164,24 +1101,21 @@
         <v>1384.7838</v>
       </c>
       <c r="G20" t="n">
-        <v>-40551.34907349944</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>284</v>
-      </c>
-      <c r="K20" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>284</v>
+      </c>
+      <c r="J20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1203,26 +1137,21 @@
         <v>62894.8566</v>
       </c>
       <c r="G21" t="n">
-        <v>-103446.2056734994</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>284.2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>284</v>
-      </c>
-      <c r="K21" t="inlineStr">
+        <v>284</v>
+      </c>
+      <c r="J21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1244,26 +1173,21 @@
         <v>668.079</v>
       </c>
       <c r="G22" t="n">
-        <v>-102778.1266734994</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>275.6</v>
-      </c>
-      <c r="J22" t="n">
-        <v>284</v>
-      </c>
-      <c r="K22" t="inlineStr">
+        <v>284</v>
+      </c>
+      <c r="J22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1285,24 +1209,21 @@
         <v>399.969</v>
       </c>
       <c r="G23" t="n">
-        <v>-103178.0956734994</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>284</v>
-      </c>
-      <c r="K23" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>284</v>
+      </c>
+      <c r="J23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1324,24 +1245,21 @@
         <v>1047.3636</v>
       </c>
       <c r="G24" t="n">
-        <v>-102130.7320734994</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>284</v>
-      </c>
-      <c r="K24" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>284</v>
+      </c>
+      <c r="J24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1363,24 +1281,21 @@
         <v>300.854</v>
       </c>
       <c r="G25" t="n">
-        <v>-102431.5860734994</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>284</v>
-      </c>
-      <c r="K25" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>284</v>
+      </c>
+      <c r="J25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1402,26 +1317,21 @@
         <v>371.417</v>
       </c>
       <c r="G26" t="n">
-        <v>-102431.5860734994</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="J26" t="n">
-        <v>284</v>
-      </c>
-      <c r="K26" t="inlineStr">
+        <v>284</v>
+      </c>
+      <c r="J26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1443,26 +1353,21 @@
         <v>20</v>
       </c>
       <c r="G27" t="n">
-        <v>-102411.5860734994</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>287.2</v>
-      </c>
-      <c r="J27" t="n">
-        <v>284</v>
-      </c>
-      <c r="K27" t="inlineStr">
+        <v>284</v>
+      </c>
+      <c r="J27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1484,26 +1389,21 @@
         <v>10.3095</v>
       </c>
       <c r="G28" t="n">
-        <v>-102411.5860734994</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="J28" t="n">
-        <v>284</v>
-      </c>
-      <c r="K28" t="inlineStr">
+        <v>284</v>
+      </c>
+      <c r="J28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1525,26 +1425,21 @@
         <v>111.0393</v>
       </c>
       <c r="G29" t="n">
-        <v>-102300.5467734994</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="J29" t="n">
-        <v>284</v>
-      </c>
-      <c r="K29" t="inlineStr">
+        <v>284</v>
+      </c>
+      <c r="J29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1566,26 +1461,21 @@
         <v>3014.1737</v>
       </c>
       <c r="G30" t="n">
-        <v>-99286.37307349945</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>292.9</v>
-      </c>
-      <c r="J30" t="n">
-        <v>284</v>
-      </c>
-      <c r="K30" t="inlineStr">
+        <v>284</v>
+      </c>
+      <c r="J30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1607,26 +1497,21 @@
         <v>49185.2039</v>
       </c>
       <c r="G31" t="n">
-        <v>-50101.16917349945</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>293.9</v>
-      </c>
-      <c r="J31" t="n">
-        <v>284</v>
-      </c>
-      <c r="K31" t="inlineStr">
+        <v>284</v>
+      </c>
+      <c r="J31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1648,26 +1533,21 @@
         <v>690.35</v>
       </c>
       <c r="G32" t="n">
-        <v>-49410.81917349945</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
-        <v>296</v>
-      </c>
-      <c r="J32" t="n">
-        <v>284</v>
-      </c>
-      <c r="K32" t="inlineStr">
+        <v>284</v>
+      </c>
+      <c r="J32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1689,24 +1569,21 @@
         <v>285.7404</v>
       </c>
       <c r="G33" t="n">
-        <v>-49410.81917349945</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>284</v>
-      </c>
-      <c r="K33" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>284</v>
+      </c>
+      <c r="J33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1728,24 +1605,21 @@
         <v>25828.9282</v>
       </c>
       <c r="G34" t="n">
-        <v>-23581.89097349945</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>284</v>
-      </c>
-      <c r="K34" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>284</v>
+      </c>
+      <c r="J34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1767,24 +1641,21 @@
         <v>6609</v>
       </c>
       <c r="G35" t="n">
-        <v>-30190.89097349945</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>284</v>
-      </c>
-      <c r="K35" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>284</v>
+      </c>
+      <c r="J35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1806,24 +1677,21 @@
         <v>1008.3014</v>
       </c>
       <c r="G36" t="n">
-        <v>-30190.89097349945</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>284</v>
-      </c>
-      <c r="K36" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>284</v>
+      </c>
+      <c r="J36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1845,24 +1713,21 @@
         <v>7787.729</v>
       </c>
       <c r="G37" t="n">
-        <v>-22403.16197349945</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>284</v>
-      </c>
-      <c r="K37" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>284</v>
+      </c>
+      <c r="J37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1884,24 +1749,21 @@
         <v>15.7064</v>
       </c>
       <c r="G38" t="n">
-        <v>-22403.16197349945</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>284</v>
-      </c>
-      <c r="K38" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>284</v>
+      </c>
+      <c r="J38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1923,24 +1785,21 @@
         <v>3287.6901</v>
       </c>
       <c r="G39" t="n">
-        <v>-19115.47187349945</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>284</v>
-      </c>
-      <c r="K39" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>284</v>
+      </c>
+      <c r="J39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1962,24 +1821,21 @@
         <v>518.9659</v>
       </c>
       <c r="G40" t="n">
-        <v>-19634.43777349945</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>284</v>
-      </c>
-      <c r="K40" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>284</v>
+      </c>
+      <c r="J40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2001,24 +1857,21 @@
         <v>9919.165499999999</v>
       </c>
       <c r="G41" t="n">
-        <v>-29553.60327349945</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>284</v>
-      </c>
-      <c r="K41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>284</v>
+      </c>
+      <c r="J41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2040,24 +1893,21 @@
         <v>7488.8366</v>
       </c>
       <c r="G42" t="n">
-        <v>-22064.76667349945</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>284</v>
-      </c>
-      <c r="K42" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>284</v>
+      </c>
+      <c r="J42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2079,24 +1929,21 @@
         <v>1110.9701</v>
       </c>
       <c r="G43" t="n">
-        <v>-20953.79657349945</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>284</v>
-      </c>
-      <c r="K43" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>284</v>
+      </c>
+      <c r="J43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2118,24 +1965,21 @@
         <v>3002.5917</v>
       </c>
       <c r="G44" t="n">
-        <v>-20953.79657349945</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>284</v>
-      </c>
-      <c r="K44" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>284</v>
+      </c>
+      <c r="J44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2157,24 +2001,21 @@
         <v>184.8474</v>
       </c>
       <c r="G45" t="n">
-        <v>-21138.64397349945</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>284</v>
-      </c>
-      <c r="K45" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>284</v>
+      </c>
+      <c r="J45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2196,24 +2037,21 @@
         <v>775.5897</v>
       </c>
       <c r="G46" t="n">
-        <v>-20363.05427349945</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>284</v>
-      </c>
-      <c r="K46" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>284</v>
+      </c>
+      <c r="J46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2235,24 +2073,21 @@
         <v>2743.784</v>
       </c>
       <c r="G47" t="n">
-        <v>-17619.27027349945</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>284</v>
-      </c>
-      <c r="K47" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>284</v>
+      </c>
+      <c r="J47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2274,24 +2109,21 @@
         <v>844.3737</v>
       </c>
       <c r="G48" t="n">
-        <v>-17619.27027349945</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>284</v>
-      </c>
-      <c r="K48" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>284</v>
+      </c>
+      <c r="J48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2313,24 +2145,21 @@
         <v>2629.9315</v>
       </c>
       <c r="G49" t="n">
-        <v>-14989.33877349945</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>284</v>
-      </c>
-      <c r="K49" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>284</v>
+      </c>
+      <c r="J49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2352,24 +2181,21 @@
         <v>122</v>
       </c>
       <c r="G50" t="n">
-        <v>-14867.33877349945</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>284</v>
-      </c>
-      <c r="K50" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>284</v>
+      </c>
+      <c r="J50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2391,24 +2217,21 @@
         <v>3146.633102580239</v>
       </c>
       <c r="G51" t="n">
-        <v>-18013.97187607969</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>284</v>
-      </c>
-      <c r="K51" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>284</v>
+      </c>
+      <c r="J51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2430,24 +2253,21 @@
         <v>3131.926345609065</v>
       </c>
       <c r="G52" t="n">
-        <v>-21145.89822168875</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>284</v>
-      </c>
-      <c r="K52" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>284</v>
+      </c>
+      <c r="J52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2469,24 +2289,23 @@
         <v>819.3934</v>
       </c>
       <c r="G53" t="n">
-        <v>-21965.29162168875</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>284</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>284</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1.111901408450704</v>
       </c>
       <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>1.01056338028169</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2508,24 +2327,15 @@
         <v>2430.217</v>
       </c>
       <c r="G54" t="n">
-        <v>-19535.07462168875</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>284</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2547,24 +2357,15 @@
         <v>50</v>
       </c>
       <c r="G55" t="n">
-        <v>-19585.07462168875</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>284</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2586,24 +2387,15 @@
         <v>15.7064</v>
       </c>
       <c r="G56" t="n">
-        <v>-19600.78102168875</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>284</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2625,24 +2417,15 @@
         <v>6490.0342</v>
       </c>
       <c r="G57" t="n">
-        <v>-13110.74682168875</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>284</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2664,24 +2447,15 @@
         <v>1010.89665408805</v>
       </c>
       <c r="G58" t="n">
-        <v>-12099.8501676007</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>284</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2703,24 +2477,15 @@
         <v>46.3709</v>
       </c>
       <c r="G59" t="n">
-        <v>-12146.2210676007</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>284</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2742,26 +2507,15 @@
         <v>69.59</v>
       </c>
       <c r="G60" t="n">
-        <v>-12215.8110676007</v>
-      </c>
-      <c r="H60" t="n">
         <v>2</v>
       </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>284</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1.104154929577465</v>
-      </c>
-      <c r="M60" t="n">
-        <v>1.01056338028169</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2783,18 +2537,15 @@
         <v>0.1007</v>
       </c>
       <c r="G61" t="n">
-        <v>-12215.8110676007</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2816,18 +2567,15 @@
         <v>63.95</v>
       </c>
       <c r="G62" t="n">
-        <v>-12279.7610676007</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2849,18 +2597,15 @@
         <v>157.4799</v>
       </c>
       <c r="G63" t="n">
-        <v>-12437.2409676007</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2882,18 +2627,15 @@
         <v>10</v>
       </c>
       <c r="G64" t="n">
-        <v>-12427.2409676007</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2915,18 +2657,15 @@
         <v>433.7</v>
       </c>
       <c r="G65" t="n">
-        <v>-12860.9409676007</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2948,18 +2687,15 @@
         <v>200</v>
       </c>
       <c r="G66" t="n">
-        <v>-12660.9409676007</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2981,18 +2717,15 @@
         <v>757.8189</v>
       </c>
       <c r="G67" t="n">
-        <v>-11903.1220676007</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3014,18 +2747,15 @@
         <v>129.4274</v>
       </c>
       <c r="G68" t="n">
-        <v>-12032.5494676007</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3047,18 +2777,15 @@
         <v>387.606</v>
       </c>
       <c r="G69" t="n">
-        <v>-11644.9434676007</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3080,18 +2807,15 @@
         <v>601.1598</v>
       </c>
       <c r="G70" t="n">
-        <v>-12246.1032676007</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3113,18 +2837,15 @@
         <v>833.091</v>
       </c>
       <c r="G71" t="n">
-        <v>-13079.1942676007</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3146,18 +2867,15 @@
         <v>299.8322</v>
       </c>
       <c r="G72" t="n">
-        <v>-13379.0264676007</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3179,18 +2897,15 @@
         <v>583.3706</v>
       </c>
       <c r="G73" t="n">
-        <v>-12795.6558676007</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3212,18 +2927,15 @@
         <v>69.22499999999999</v>
       </c>
       <c r="G74" t="n">
-        <v>-12864.8808676007</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3245,18 +2957,15 @@
         <v>1490.613</v>
       </c>
       <c r="G75" t="n">
-        <v>-11374.26786760071</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3278,18 +2987,15 @@
         <v>143.775</v>
       </c>
       <c r="G76" t="n">
-        <v>-11518.0428676007</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3311,18 +3017,15 @@
         <v>300.0494</v>
       </c>
       <c r="G77" t="n">
-        <v>-11217.99346760071</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3344,18 +3047,15 @@
         <v>155.75</v>
       </c>
       <c r="G78" t="n">
-        <v>-11373.74346760071</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3377,18 +3077,15 @@
         <v>1866.413</v>
       </c>
       <c r="G79" t="n">
-        <v>-9507.330467600705</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3410,18 +3107,15 @@
         <v>882</v>
       </c>
       <c r="G80" t="n">
-        <v>-10389.3304676007</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3443,18 +3137,15 @@
         <v>577.99</v>
       </c>
       <c r="G81" t="n">
-        <v>-10967.3204676007</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3476,18 +3167,15 @@
         <v>525</v>
       </c>
       <c r="G82" t="n">
-        <v>-10442.3204676007</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3509,18 +3197,15 @@
         <v>22.5352</v>
       </c>
       <c r="G83" t="n">
-        <v>-10464.8556676007</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3542,18 +3227,15 @@
         <v>463.9539</v>
       </c>
       <c r="G84" t="n">
-        <v>-10928.80956760071</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3575,18 +3257,15 @@
         <v>300</v>
       </c>
       <c r="G85" t="n">
-        <v>-11228.80956760071</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3608,18 +3287,15 @@
         <v>209.03</v>
       </c>
       <c r="G86" t="n">
-        <v>-11019.7795676007</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3641,18 +3317,15 @@
         <v>224.1751</v>
       </c>
       <c r="G87" t="n">
-        <v>-10795.6044676007</v>
-      </c>
-      <c r="H87" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3674,18 +3347,15 @@
         <v>286.35</v>
       </c>
       <c r="G88" t="n">
-        <v>-11081.9544676007</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3707,18 +3377,15 @@
         <v>74.4474</v>
       </c>
       <c r="G89" t="n">
-        <v>-11081.9544676007</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3740,18 +3407,15 @@
         <v>1947.9698</v>
       </c>
       <c r="G90" t="n">
-        <v>-9133.984667600704</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3773,18 +3437,15 @@
         <v>2828.9267</v>
       </c>
       <c r="G91" t="n">
-        <v>-6305.057967600704</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3806,18 +3467,15 @@
         <v>90</v>
       </c>
       <c r="G92" t="n">
-        <v>-6305.057967600704</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3839,18 +3497,15 @@
         <v>2</v>
       </c>
       <c r="G93" t="n">
-        <v>-6303.057967600704</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3872,18 +3527,15 @@
         <v>52.5442</v>
       </c>
       <c r="G94" t="n">
-        <v>-6355.602167600704</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3905,18 +3557,15 @@
         <v>186</v>
       </c>
       <c r="G95" t="n">
-        <v>-6169.602167600704</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3938,18 +3587,15 @@
         <v>105.1865</v>
       </c>
       <c r="G96" t="n">
-        <v>-6169.602167600704</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3971,18 +3617,15 @@
         <v>271.5797</v>
       </c>
       <c r="G97" t="n">
-        <v>-6169.602167600704</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4004,18 +3647,15 @@
         <v>149.6288</v>
       </c>
       <c r="G98" t="n">
-        <v>-6019.973367600704</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4037,18 +3677,15 @@
         <v>2763.632</v>
       </c>
       <c r="G99" t="n">
-        <v>-3256.341367600704</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4070,18 +3707,15 @@
         <v>935.2628999999999</v>
       </c>
       <c r="G100" t="n">
-        <v>-4191.604267600704</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4103,18 +3737,15 @@
         <v>310</v>
       </c>
       <c r="G101" t="n">
-        <v>-4501.604267600704</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4136,18 +3767,15 @@
         <v>159.6168</v>
       </c>
       <c r="G102" t="n">
-        <v>-4341.987467600704</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4169,18 +3797,15 @@
         <v>179.4348</v>
       </c>
       <c r="G103" t="n">
-        <v>-4521.422267600704</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4202,18 +3827,15 @@
         <v>50</v>
       </c>
       <c r="G104" t="n">
-        <v>-4571.422267600704</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4235,18 +3857,15 @@
         <v>138.4593</v>
       </c>
       <c r="G105" t="n">
-        <v>-4571.422267600704</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4268,18 +3887,15 @@
         <v>760</v>
       </c>
       <c r="G106" t="n">
-        <v>-3811.422267600704</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4301,18 +3917,15 @@
         <v>57.498</v>
       </c>
       <c r="G107" t="n">
-        <v>-3753.924267600704</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4334,18 +3947,15 @@
         <v>545</v>
       </c>
       <c r="G108" t="n">
-        <v>-3208.924267600704</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4367,18 +3977,15 @@
         <v>124.8773</v>
       </c>
       <c r="G109" t="n">
-        <v>-3084.046967600704</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4400,18 +4007,15 @@
         <v>3.287310979618672</v>
       </c>
       <c r="G110" t="n">
-        <v>-3080.759656621085</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4433,18 +4037,15 @@
         <v>6.5816</v>
       </c>
       <c r="G111" t="n">
-        <v>-3080.759656621085</v>
-      </c>
-      <c r="H111" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4466,18 +4067,15 @@
         <v>50</v>
       </c>
       <c r="G112" t="n">
-        <v>-3130.759656621085</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4499,18 +4097,15 @@
         <v>180.463</v>
       </c>
       <c r="G113" t="n">
-        <v>-2950.296656621085</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4532,18 +4127,15 @@
         <v>33</v>
       </c>
       <c r="G114" t="n">
-        <v>-2983.296656621085</v>
-      </c>
-      <c r="H114" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4565,18 +4157,15 @@
         <v>6621</v>
       </c>
       <c r="G115" t="n">
-        <v>-2983.296656621085</v>
-      </c>
-      <c r="H115" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4598,18 +4187,15 @@
         <v>3173.0729</v>
       </c>
       <c r="G116" t="n">
-        <v>189.7762433789153</v>
-      </c>
-      <c r="H116" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4631,18 +4217,15 @@
         <v>67</v>
       </c>
       <c r="G117" t="n">
-        <v>122.7762433789153</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4664,18 +4247,15 @@
         <v>3224.422310984206</v>
       </c>
       <c r="G118" t="n">
-        <v>3347.198554363121</v>
-      </c>
-      <c r="H118" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4697,18 +4277,15 @@
         <v>3.237293622531564</v>
       </c>
       <c r="G119" t="n">
-        <v>3343.96126074059</v>
-      </c>
-      <c r="H119" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4730,18 +4307,15 @@
         <v>719.6599459546926</v>
       </c>
       <c r="G120" t="n">
-        <v>4063.621206695282</v>
-      </c>
-      <c r="H120" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4763,18 +4337,15 @@
         <v>3151.6532</v>
       </c>
       <c r="G121" t="n">
-        <v>7215.274406695282</v>
-      </c>
-      <c r="H121" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4796,18 +4367,15 @@
         <v>299.0238</v>
       </c>
       <c r="G122" t="n">
-        <v>6916.250606695282</v>
-      </c>
-      <c r="H122" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4829,18 +4397,15 @@
         <v>922.4073</v>
       </c>
       <c r="G123" t="n">
-        <v>7838.657906695282</v>
-      </c>
-      <c r="H123" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4862,18 +4427,15 @@
         <v>34.8031</v>
       </c>
       <c r="G124" t="n">
-        <v>7838.657906695282</v>
-      </c>
-      <c r="H124" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4895,18 +4457,15 @@
         <v>200</v>
       </c>
       <c r="G125" t="n">
-        <v>7638.657906695282</v>
-      </c>
-      <c r="H125" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4928,18 +4487,15 @@
         <v>525.6904</v>
       </c>
       <c r="G126" t="n">
-        <v>8164.348306695281</v>
-      </c>
-      <c r="H126" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4961,18 +4517,15 @@
         <v>127</v>
       </c>
       <c r="G127" t="n">
-        <v>8291.348306695281</v>
-      </c>
-      <c r="H127" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,18 +4547,15 @@
         <v>184.6636</v>
       </c>
       <c r="G128" t="n">
-        <v>8106.684706695281</v>
-      </c>
-      <c r="H128" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
